--- a/SelfManagement/bin/doc/开发环境配置手册.xlsx
+++ b/SelfManagement/bin/doc/开发环境配置手册.xlsx
@@ -22,7 +22,6 @@
 <office:document-content xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:xforms="http://www.w3.org/2002/xforms" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:drawooo="http://openoffice.org/2010/draw" xmlns:calcext="urn:org:documentfoundation:names:experimental:calc:xmlns:calcext:1.0" xmlns:loext="urn:org:documentfoundation:names:experimental:office:xmlns:loext:1.0" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" xmlns:formx="urn:openoffice:names:experimental:ooxml-odf-interop:xmlns:form:1.0" xmlns:css3t="http://www.w3.org/TR/css3-text/" office:version="1.2">
   <office:scripts/>
   <office:font-face-decls>
-    <style:font-face style:name="F" svg:font-family="" style:font-family-generic="roman"/>
     <style:font-face style:name="Liberation Sans" svg:font-family="'Liberation Sans'" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Arial" svg:font-family="Arial" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="Segoe UI" svg:font-family="'Segoe UI'" style:font-family-generic="system" style:font-pitch="variable"/>
@@ -34,10 +33,10 @@
       <style:table-column-properties fo:break-before="auto" style:column-width="22.58mm"/>
     </style:style>
     <style:style style:name="ro1" style:family="table-row">
+      <style:table-row-properties style:row-height="4.52mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro2" style:family="table-row">
       <style:table-row-properties style:row-height="6.54mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro2" style:family="table-row">
-      <style:table-row-properties style:row-height="4.52mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro3" style:family="table-row">
       <style:table-row-properties style:row-height="6.53mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
@@ -80,7 +79,50 @@
   <office:body>
     <office:spreadsheet>
       <table:calculation-settings table:automatic-find-labels="false"/>
-      <table:table table:name="开发环境配置手册" table:style-name="ta1">
+      <table:table table:name="开发必备的环境" table:style-name="ta1">
+        <table:table-column table:style-name="co1" table:default-cell-style-name="Default"/>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>数据库可视化工具</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>SQLWorkbench</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>服务启动管理</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>XAMPP Control Panel</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>文本编辑器(不是必须)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>atom</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>版本管理工具(不是必须)</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>GitHub desktop</text:p>
+          </table:table-cell>
+        </table:table-row>
+      </table:table>
+      <table:table table:name="插件的安装" table:style-name="ta1">
         <table:shapes>
           <draw:frame draw:z-index="0" draw:name="画像 1" draw:style-name="gr1" draw:text-style-name="P1" svg:width="232.09mm" svg:height="136mm" svg:x="0mm" svg:y="8.66mm">
             <draw:image xlink:href="Pictures/1000000000000505000002F164AD5B234ADC50F0.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
@@ -142,12 +184,12 @@
           </draw:custom-shape>
         </table:shapes>
         <table:table-column table:style-name="co1" table:default-cell-style-name="Default"/>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro2">
           <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>在帮助界面中选择 安装插件</text:p>
           </table:table-cell>
         </table:table-row>
-        <table:table-row table:style-name="ro2" table:number-rows-repeated="32">
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="32">
           <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
@@ -155,26 +197,26 @@
             <text:p>在红色框内输入「Spring Tool Suite (STS) for Eclipse」然后点击检索</text:p>
           </table:table-cell>
         </table:table-row>
-        <table:table-row table:style-name="ro2" table:number-rows-repeated="41">
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="41">
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro2">
           <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>点击红色框的安装按钮</text:p>
           </table:table-cell>
         </table:table-row>
-        <table:table-row table:style-name="ro2" table:number-rows-repeated="84">
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="84">
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro2">
           <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>最后一步，同意，然后完成。</text:p>
           </table:table-cell>
         </table:table-row>
-        <table:table-row table:style-name="ro2" table:number-rows-repeated="41">
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="41">
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>安装中</text:p>
           </table:table-cell>
@@ -189,11 +231,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2017-08-11T18:30:55.064000000</dc:date>
-    <meta:editing-duration>PT5M54S</meta:editing-duration>
-    <meta:editing-cycles>1</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="5" meta:object-count="13"/>
+    <dc:date>2017-10-13T13:37:36.559000000</dc:date>
+    <meta:editing-duration>PT9M23S</meta:editing-duration>
+    <meta:editing-cycles>3</meta:editing-cycles>
     <meta:generator>LibreOffice/5.2.1.2$Windows_x86 LibreOffice_project/31dd62db80d4e60af04904455ec9c9219178d620</meta:generator>
+    <meta:document-statistic meta:table-count="2" meta:cell-count="13" meta:object-count="13"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -204,15 +246,15 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">24835</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">106473</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">2257</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">3612</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
-            <config:config-item-map-entry config:name="开发环境配置手册">
-              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">0</config:config-item>
+            <config:config-item-map-entry config:name="开发必备的环境">
+              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">7</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -227,9 +269,26 @@
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
             </config:config-item-map-entry>
+            <config:config-item-map-entry config:name="插件的安装">
+              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">0</config:config-item>
+              <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">230</config:config-item>
+              <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
+              <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
+              <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
+            </config:config-item-map-entry>
           </config:config-item-map-named>
-          <config:config-item config:name="ActiveTable" config:type="string">开发环境配置手册</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1847</config:config-item>
+          <config:config-item config:name="ActiveTable" config:type="string">开发必备的环境</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1825</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -273,8 +332,8 @@
       <config:config-item config:name="IsRasterAxisSynchronized" config:type="boolean">true</config:config-item>
       <config:config-item config:name="AutoCalculate" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ApplyUserData" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterName" config:type="string"/>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary"/>
+      <config:config-item config:name="PrinterName" config:type="string">Microsoft Print to PDF</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">EBb+/01pY3Jvc29mdCBQcmludCB0byBQREYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAATWljcm9zb2Z0IFByaW50IFRvIFBERgAAAAAAAAAAAAAWAAEAMhUAAAAAAAAEAAhSAAAEdAAAM1ROVwYATQBpAGMAcgBvAHMAbwBmAHQAIABQAHIAaQBuAHQAIAB0AG8AIABQAEQARgAAAAAAAAAAAAAAAAAAAAAAAAAAAAEEAwbcAFAUAy8BAAEACQCaCzQIZAABAA8AWAICAAEAWAIDAAEAQQA0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQAAAAAAAAABAAAAAgAAAAEAAAD/////R0lTNAAAAAAAAAAAAAAAAERJTlUiAMgAJAMsET9de34AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAABQABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADIAAAAU01USgAAAAAQALgAewAwADgANABGADAAMQBGAEEALQBFADYAMwA0AC0ANABEADcANwAtADgAMwBFAEUALQAwADcANAA4ADEANwBDADAAMwA1ADgAMQB9AAAAUkVTRExMAFVuaXJlc0RMTABQYXBlclNpemUAQTQAT3JpZW50YXRpb24AUE9SVFJBSVQAUmVzb2x1dGlvbgBSZXNPcHRpb24xAENvbG9yTW9kZQBDb2xvcgAAAAAAAAAAAAAAAAAAAAAAACwRAABWNERNAQAAAAAAAACcCnAiHAAAAOwAAAADAAAA+gFPCDTmd02D7gdIF8A1gdAAAABMAAAAAwAAAAAIAAAAAAAAAAAAAAMAAAAACAAAKgAAAAAIAAADAAAAQAAAAFYAAAAAEAAARABvAGMAdQBtAGUAbgB0AFUAcwBlAHIAUABhAHMAcwB3AG8AcgBkAAAARABvAGMAdQBtAGUAbgB0AE8AdwBuAGUAcgBQAGEAcwBzAHcAbwByAGQAAABEAG8AYwB1AG0AZQBuAHQAQwByAHkAcAB0AFMAZQBjAHUAcgBpAHQAeQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAASAENPTVBBVF9EVVBMRVhfTU9ERQ4ARFVQTEVYX1VOS05PV04=</config:config-item>
       <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
       <config:config-item config:name="SaveVersionOnClose" config:type="boolean">false</config:config-item>
       <config:config-item config:name="UpdateFromTemplate" config:type="boolean">true</config:config-item>
@@ -282,6 +341,7 @@
       <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
       <config:config-item config:name="IsDocumentShared" config:type="boolean">false</config:config-item>
       <config:config-item config:name="EmbedFonts" config:type="boolean">false</config:config-item>
+      <config:config-item config:name="SyntaxStringRef" config:type="short">7</config:config-item>
     </config:config-item-set>
   </office:settings>
 </office:document-settings>
@@ -290,7 +350,6 @@
 <file path=styles.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-styles xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:drawooo="http://openoffice.org/2010/draw" xmlns:calcext="urn:org:documentfoundation:names:experimental:calc:xmlns:calcext:1.0" xmlns:loext="urn:org:documentfoundation:names:experimental:office:xmlns:loext:1.0" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" xmlns:css3t="http://www.w3.org/TR/css3-text/" office:version="1.2">
   <office:font-face-decls>
-    <style:font-face style:name="F" svg:font-family="" style:font-family-generic="roman"/>
     <style:font-face style:name="Liberation Sans" svg:font-family="'Liberation Sans'" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Arial" svg:font-family="Arial" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="Segoe UI" svg:font-family="'Segoe UI'" style:font-family-generic="system" style:font-pitch="variable"/>
@@ -391,9 +450,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2017-08-11">0000/00/00</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2017-10-13">0000/00/00</text:date>
             , 
-            <text:time>00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="13:34:06.805000000">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
